--- a/1.东方阿尔法-迅策资产数据管理系统客户需求和问题跟踪表.xlsx
+++ b/1.东方阿尔法-迅策资产数据管理系统客户需求和问题跟踪表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HAO\Desktop\IPB-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99627290-485B-4D15-AFD3-97B64944C684}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063E62F9-F33A-4C58-BB69-509CA8E4CF4F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="15816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="客户需求跟踪表" sheetId="1" r:id="rId1"/>
@@ -292,10 +292,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>目前使用临时dll文件临时修复该问题了</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>ipb系统
 3.31.2/0</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -372,6 +368,10 @@
   </si>
   <si>
     <t>已修复</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>将tb1程序升级至3.18.9/1解决</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1284,7 +1284,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
@@ -1376,7 +1376,7 @@
         <v>19</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>12</v>
@@ -1392,7 +1392,7 @@
         <v>43581</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L3" s="7"/>
       <c r="M3" s="8"/>
@@ -1419,7 +1419,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L4" s="7"/>
       <c r="M4" s="8"/>
@@ -1446,7 +1446,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L5" s="7"/>
       <c r="M5" s="8"/>
@@ -1473,7 +1473,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="8"/>
@@ -1500,7 +1500,7 @@
       <c r="I7" s="8"/>
       <c r="J7" s="20"/>
       <c r="K7" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
@@ -1527,7 +1527,7 @@
       <c r="I8" s="8"/>
       <c r="J8" s="20"/>
       <c r="K8" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
@@ -1550,7 +1550,7 @@
         <v>27</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H9" s="8"/>
       <c r="I9" s="20">
@@ -1560,7 +1560,7 @@
         <v>43581</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
@@ -1576,7 +1576,7 @@
         <v>26</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E10" s="28"/>
       <c r="F10" s="18" t="s">
@@ -1587,7 +1587,7 @@
       <c r="I10" s="8"/>
       <c r="J10" s="21"/>
       <c r="K10" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
@@ -1600,10 +1600,10 @@
         <v>25</v>
       </c>
       <c r="C11" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="43" t="s">
         <v>80</v>
-      </c>
-      <c r="D11" s="43" t="s">
-        <v>81</v>
       </c>
       <c r="E11" s="53"/>
       <c r="F11" s="39"/>
@@ -1645,9 +1645,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M3" sqref="M2:M3"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1834,12 +1834,12 @@
         <v>61</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="I5" s="37"/>
       <c r="J5" s="37"/>
       <c r="K5" s="34" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L5" s="34" t="s">
         <v>51</v>
@@ -1857,19 +1857,19 @@
         <v>45</v>
       </c>
       <c r="D6" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="41" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="F6" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="43" t="s">
+      <c r="G6" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="43" t="s">
+      <c r="H6" s="43" t="s">
         <v>66</v>
-      </c>
-      <c r="H6" s="43" t="s">
-        <v>67</v>
       </c>
       <c r="I6" s="44"/>
       <c r="J6" s="44"/>
@@ -1890,16 +1890,16 @@
         <v>45</v>
       </c>
       <c r="D7" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E7" s="47" t="s">
         <v>26</v>
       </c>
       <c r="F7" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="49" t="s">
         <v>68</v>
-      </c>
-      <c r="G7" s="49" t="s">
-        <v>69</v>
       </c>
       <c r="H7" s="50"/>
       <c r="I7" s="50"/>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="L7" s="45"/>
       <c r="M7" s="48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1923,11 +1923,11 @@
         <v>45</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E8" s="39"/>
       <c r="F8" s="43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G8" s="44"/>
       <c r="H8" s="44"/>
@@ -1950,13 +1950,13 @@
         <v>45</v>
       </c>
       <c r="D9" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E9" s="47" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G9" s="50"/>
       <c r="H9" s="50"/>
@@ -1965,7 +1965,7 @@
       <c r="K9" s="45"/>
       <c r="L9" s="45"/>
       <c r="M9" s="51" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/1.东方阿尔法-迅策资产数据管理系统客户需求和问题跟踪表.xlsx
+++ b/1.东方阿尔法-迅策资产数据管理系统客户需求和问题跟踪表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HAO\Desktop\IPB-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{063E62F9-F33A-4C58-BB69-509CA8E4CF4F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F64BEB3-DB76-4F9A-AABB-941590549117}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="客户需求跟踪表" sheetId="1" r:id="rId1"/>
@@ -18,15 +18,15 @@
     <sheet name="备注" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">客户问题跟踪表!$E$1:$E$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">客户需求跟踪表!$A$2:$M$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">客户问题跟踪表!$D$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">客户需求跟踪表!$A$2:$M$11</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="87">
   <si>
     <t>客户原始需求</t>
   </si>
@@ -91,6 +91,240 @@
   </si>
   <si>
     <t>需求描述</t>
+  </si>
+  <si>
+    <t>风控以基金汇总为单位计算风控，非以交易单元为单位计算风控。目前风控设置计算产品范围时存在以交易单元、单基金、机构下所有基金等为单位计算的，但是再前端页面仅以交易单元显示</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
+  </si>
+  <si>
+    <t>人员权限中，勾选角色后无法自动添加下面的菜单权限</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹渊</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合报表</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计版本</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>受理产品经理</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划修改</t>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本</t>
+  </si>
+  <si>
+    <t>模块</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题描述</t>
+  </si>
+  <si>
+    <t>问题原因</t>
+  </si>
+  <si>
+    <t>解决方案</t>
+  </si>
+  <si>
+    <t>解决时间</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决版本</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题状态</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>反馈人</t>
+  </si>
+  <si>
+    <t>分仓程序
+1.0.1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>分仓程序出现崩溃，客户立马进行了重启操作，重启后可正常报单，但崩溃后无法进行撤单</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>待添加core文件设置后进一步观察程序崩溃原因，崩溃后无法进行撤单问题为已知bug，待二期程序升级时将解决该问题</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>分仓程序1.1.10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘昊</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>委托漏单：11:09:25  300182，买入5300股。这个金证系统发出委托，状态是已报，但是中信证券客户端上根本没看到这笔，所以最后也没法儿撤单回来。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过对日志和委托流水分析确实存在委托遗漏的情况。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>年后模拟环境开通后再做进一步精确测试</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志打印和szshtrade.conf中的密码打印显示为密文</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序Bug</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本升级修复</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>待修复</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb1程序
+3.18.7/7</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb对接金证系统部分账号无法登录的问题</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>tb程序问题</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ipb系统
+3.31.2/0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令交易</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令交易-当前逆回购的持仓成本均价为负值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序中代码公式无法满足逆回购的业务</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>提bug单等待升级后解决</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合报表中股票市值不正确</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户手工维护了一些股票代码，计算股票市值时未将该类股票代码计算在内</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>之后添加自定义匹配后解决</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发中</t>
+  </si>
+  <si>
+    <t>待规划</t>
+  </si>
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划修改</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金报表中增加上一日单位净值和基金涨跌幅的展示</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>分仓1.10.1</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>分仓程序异常崩溃</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合报表中净资产计算不正确，未计算pb中的应收应付信息</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAPD缺陷单</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>风控模块</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一个公司的股票，各市场的股票持仓需要合并计算风控，比如：A股和港股的股票需要合并计算不超过10%流通股本的风控</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>已修复</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>将tb1程序升级至3.18.9/1解决</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.35.2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -130,249 +364,29 @@
         <scheme val="minor"/>
       </rPr>
       <t>、应收、应付
-持仓中股票、基金、债券市值占净资产比
-综合报表-资产明细
-个股盈亏比例排序（通过排序可看出该哪支股票盈最多、亏最多）
-市值占净资产排序</t>
+持仓中股票、基金、债券市值占净资产比</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>风控以基金汇总为单位计算风控，非以交易单元为单位计算风控。目前风控设置计算产品范围时存在以交易单元、单基金、机构下所有基金等为单位计算的，但是再前端页面仅以交易单元显示</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>低</t>
-  </si>
-  <si>
-    <t>人员权限中，勾选角色后无法自动添加下面的菜单权限</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹渊</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>综合报表</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>预计版本</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>预计日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>受理产品经理</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划修改</t>
-  </si>
-  <si>
-    <t>编号</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户</t>
-  </si>
-  <si>
-    <t>版本</t>
-  </si>
-  <si>
-    <t>模块</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题描述</t>
-  </si>
-  <si>
-    <t>问题原因</t>
-  </si>
-  <si>
-    <t>解决方案</t>
-  </si>
-  <si>
-    <t>解决时间</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>解决版本</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题状态</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>反馈人</t>
-  </si>
-  <si>
-    <t>东方阿尔法</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>分仓程序
-1.0.1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>分仓程序出现崩溃，客户立马进行了重启操作，重启后可正常报单，但崩溃后无法进行撤单</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>待添加core文件设置后进一步观察程序崩溃原因，崩溃后无法进行撤单问题为已知bug，待二期程序升级时将解决该问题</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>分仓程序1.1.10</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>已解决</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘昊</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>委托漏单：11:09:25  300182，买入5300股。这个金证系统发出委托，状态是已报，但是中信证券客户端上根本没看到这笔，所以最后也没法儿撤单回来。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>经过对日志和委托流水分析确实存在委托遗漏的情况。</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>年后模拟环境开通后再做进一步精确测试</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>日志打印和szshtrade.conf中的密码打印显示为密文</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>程序Bug</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>版本升级修复</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>待修复</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>tb1程序
-3.18.7/7</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>tb对接金证系统部分账号无法登录的问题</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>tb程序问题</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ipb系统
-3.31.2/0</t>
+    <t xml:space="preserve">
+综合报表-资产明细中个股盈亏比例排序（通过排序可看出该哪支股票盈最多、亏最多）、市值占净资产排序</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>指令交易</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>指令交易-当前逆回购的持仓成本均价为负值</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>程序中代码公式无法满足逆回购的业务</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>提bug单等待升级后解决</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>综合报表中股票市值不正确</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户手工维护了一些股票代码，计算股票市值时未将该类股票代码计算在内</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>之后添加自定义匹配后解决</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发中</t>
-  </si>
-  <si>
-    <t>待规划</t>
-  </si>
-  <si>
-    <t>test</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划修改</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>基金报表中增加上一日单位净值和基金涨跌幅的展示</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>分仓1.10.1</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>分仓程序异常崩溃</t>
+    <t>交易可用余额取T+1可用</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>综合报表中净资产计算不正确，未计算pb中的应收应付信息</t>
+    <t>浮动盈亏精度有问题、浮动率格式统一，右对齐，小数点后两位即可</t>
     <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
-    <t>TAPD缺陷单</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>风控模块</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>同一个公司的股票，各市场的股票持仓需要合并计算风控，比如：A股和港股的股票需要合并计算不超过10%流通股本的风控</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>已修复</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>将tb1程序升级至3.18.9/1解决</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <t>详细图片</t>
   </si>
 </sst>
 </file>
@@ -697,7 +711,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -868,6 +882,24 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1013,6 +1045,50 @@
         <a:xfrm>
           <a:off x="609600" y="8697686"/>
           <a:ext cx="3000000" cy="2257143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>17219</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>12657</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1DD4696-AA3C-46F3-A149-3EF0DC8226EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="11288486"/>
+          <a:ext cx="14647619" cy="7600000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1282,10 +1358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1344,13 +1420,13 @@
         <v>7</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I2" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="19" t="s">
         <v>28</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>29</v>
       </c>
       <c r="K2" s="19" t="s">
         <v>8</v>
@@ -1359,7 +1435,7 @@
         <v>9</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="100.8" x14ac:dyDescent="0.25">
@@ -1376,28 +1452,26 @@
         <v>19</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F3" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H3" s="6"/>
-      <c r="I3" s="3">
-        <v>3.35</v>
-      </c>
+      <c r="I3" s="3"/>
       <c r="J3" s="7">
         <v>43581</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="L3" s="7"/>
       <c r="M3" s="8"/>
     </row>
-    <row r="4" spans="1:13" ht="115.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A4" s="24">
         <v>43489</v>
       </c>
@@ -1408,7 +1482,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="E4" s="25"/>
       <c r="F4" s="15" t="s">
@@ -1416,42 +1490,44 @@
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
-      <c r="I4" s="3"/>
+      <c r="I4" s="3">
+        <v>3.36</v>
+      </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L4" s="7"/>
       <c r="M4" s="8"/>
     </row>
     <row r="5" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="24">
         <v>43489</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="8"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C5" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="25"/>
+      <c r="F5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="3">
+        <v>3.36</v>
+      </c>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58"/>
+      <c r="M5" s="53"/>
+    </row>
+    <row r="6" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>43489</v>
       </c>
@@ -1462,23 +1538,23 @@
         <v>15</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="J6" s="7"/>
       <c r="K6" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="8"/>
     </row>
-    <row r="7" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>43489</v>
       </c>
@@ -1489,23 +1565,23 @@
         <v>15</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" s="5"/>
-      <c r="F7" s="17" t="s">
-        <v>14</v>
+      <c r="F7" s="16" t="s">
+        <v>22</v>
       </c>
       <c r="G7" s="6"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="20"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
       <c r="K7" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L7" s="8"/>
+        <v>68</v>
+      </c>
+      <c r="L7" s="7"/>
       <c r="M7" s="8"/>
     </row>
-    <row r="8" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>43489</v>
       </c>
@@ -1516,7 +1592,7 @@
         <v>15</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="17" t="s">
@@ -1527,115 +1603,210 @@
       <c r="I8" s="8"/>
       <c r="J8" s="20"/>
       <c r="K8" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="9" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
         <v>43489</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>11</v>
+      <c r="C9" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>73</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="6"/>
       <c r="H9" s="8"/>
-      <c r="I9" s="20">
-        <v>3.35</v>
-      </c>
-      <c r="J9" s="7">
-        <v>43581</v>
-      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="20"/>
       <c r="K9" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="26">
-        <v>43546</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="27" t="s">
+      <c r="A10" s="2">
+        <v>43489</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="6"/>
+      <c r="G10" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="21"/>
+      <c r="I10" s="20">
+        <v>3.35</v>
+      </c>
+      <c r="J10" s="7">
+        <v>43582</v>
+      </c>
       <c r="K10" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
     </row>
-    <row r="11" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="52">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="26">
+        <v>43546</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="28"/>
+      <c r="F11" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="21"/>
+      <c r="K11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+    </row>
+    <row r="12" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="52">
         <v>43556</v>
       </c>
-      <c r="B11" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11" s="53"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="39"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
+      <c r="B12" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="53"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="40">
+        <v>43565</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="39"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+    </row>
+    <row r="14" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="40">
+        <v>43565</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="39"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="60"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="60"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:M10" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:M11" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="G1:M1"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F6" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F7" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H6 G3:G10" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H7 G3:G11" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"计划修改,无需修改,待明确,需求池,无法实现"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K10" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K11" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"待规划,开发中,测试中,已实现,已交付"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L6" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L7" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E14" location="备注!A61" display="详细图片" xr:uid="{179AE8FF-E505-4562-A7E0-CE22C5244E79}"/>
+    <hyperlink ref="E13" location="备注!A61" display="详细图片" xr:uid="{679C305C-0534-4E3D-B636-E5027A2CD731}"/>
+  </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1643,276 +1814,254 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+    <sheetView zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="B10:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.44140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="37.44140625" style="23" customWidth="1"/>
-    <col min="8" max="8" width="40" style="23" customWidth="1"/>
-    <col min="9" max="9" width="15" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="23" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="9.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="37.44140625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="40" style="23" customWidth="1"/>
+    <col min="8" max="8" width="15" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="23" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="C1" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="D1" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="E1" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="F1" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="G1" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="H1" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="I1" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="J1" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="K1" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="30" t="s">
-        <v>43</v>
-      </c>
       <c r="L1" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" s="30" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A2" s="32">
         <v>1</v>
       </c>
       <c r="B2" s="33">
         <v>43495</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="35"/>
+      <c r="E2" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="G2" s="37"/>
+      <c r="H2" s="38">
+        <v>43539</v>
+      </c>
+      <c r="I2" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="36" t="s">
+      <c r="J2" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="36" t="s">
+      <c r="K2" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="38">
-        <v>43539</v>
-      </c>
-      <c r="J2" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="K2" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="L2" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="M2" s="32"/>
-    </row>
-    <row r="3" spans="1:13" ht="57.6" x14ac:dyDescent="0.25">
+      <c r="L2" s="32"/>
+    </row>
+    <row r="3" spans="1:12" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A3" s="32">
         <v>2</v>
       </c>
       <c r="B3" s="33">
         <v>43495</v>
       </c>
-      <c r="C3" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="35" t="s">
+      <c r="C3" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="35"/>
+      <c r="E3" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="38">
+        <v>43539</v>
+      </c>
+      <c r="I3" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="38">
-        <v>43539</v>
-      </c>
-      <c r="J3" s="36" t="s">
-        <v>49</v>
+      <c r="J3" s="34" t="s">
+        <v>47</v>
       </c>
       <c r="K3" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="M3" s="32"/>
-    </row>
-    <row r="4" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="L3" s="32"/>
+    </row>
+    <row r="4" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A4" s="39">
         <v>3</v>
       </c>
       <c r="B4" s="40">
         <v>43543</v>
       </c>
-      <c r="C4" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="42"/>
+      <c r="C4" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="42"/>
+      <c r="E4" s="43" t="s">
+        <v>52</v>
+      </c>
       <c r="F4" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
       <c r="K4" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="L4" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="M4" s="39"/>
-    </row>
-    <row r="5" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="L4" s="39"/>
+    </row>
+    <row r="5" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32">
         <v>4</v>
       </c>
       <c r="B5" s="33">
         <v>43545</v>
       </c>
-      <c r="C5" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="32"/>
+      <c r="C5" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="32"/>
+      <c r="E5" s="36" t="s">
+        <v>57</v>
+      </c>
       <c r="F5" s="36" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="36" t="s">
-        <v>82</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="H5" s="37"/>
       <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
+      <c r="J5" s="34" t="s">
+        <v>78</v>
+      </c>
       <c r="K5" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="L5" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="M5" s="35"/>
-    </row>
-    <row r="6" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="L5" s="35"/>
+    </row>
+    <row r="6" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="39">
         <v>5</v>
       </c>
       <c r="B6" s="40">
         <v>43546</v>
       </c>
-      <c r="C6" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="42" t="s">
+      <c r="C6" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="G6" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="G6" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="H6" s="43" t="s">
-        <v>66</v>
-      </c>
+      <c r="H6" s="44"/>
       <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="L6" s="39"/>
-      <c r="M6" s="42"/>
-    </row>
-    <row r="7" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J6" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" s="39"/>
+      <c r="L6" s="42"/>
+    </row>
+    <row r="7" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="45">
         <v>6</v>
       </c>
       <c r="B7" s="46">
         <v>43546</v>
       </c>
-      <c r="C7" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="47" t="s">
-        <v>26</v>
+      <c r="C7" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>64</v>
       </c>
       <c r="F7" s="49" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" s="49" t="s">
-        <v>68</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G7" s="50"/>
       <c r="H7" s="50"/>
       <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="L7" s="45"/>
-      <c r="M7" s="48" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" s="45"/>
+      <c r="L7" s="48" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="39">
         <v>7</v>
       </c>
@@ -1920,58 +2069,86 @@
         <v>43557</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" s="39"/>
-      <c r="F8" s="43" t="s">
-        <v>76</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="D8" s="39"/>
+      <c r="E8" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="44"/>
       <c r="G8" s="44"/>
       <c r="H8" s="44"/>
       <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="41" t="s">
-        <v>58</v>
-      </c>
+      <c r="J8" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" s="39"/>
       <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-    </row>
-    <row r="9" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="45">
         <v>8</v>
       </c>
       <c r="B9" s="46">
         <v>43558</v>
       </c>
-      <c r="C9" s="47" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="49" t="s">
-        <v>77</v>
-      </c>
+      <c r="C9" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="50"/>
       <c r="G9" s="50"/>
       <c r="H9" s="50"/>
       <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
+      <c r="J9" s="45"/>
       <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="51" t="s">
-        <v>78</v>
+      <c r="L9" s="51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="22">
+        <v>43565</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="60" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="22">
+        <v>43565</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="59" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="60" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="M9" r:id="rId1" xr:uid="{B0CAB68E-D005-48CC-98F2-254502103C3D}"/>
+    <hyperlink ref="L9" r:id="rId1" xr:uid="{B0CAB68E-D005-48CC-98F2-254502103C3D}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -1982,8 +2159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:XFD37"/>
+    <sheetView topLeftCell="A52" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/1.东方阿尔法-迅策资产数据管理系统客户需求和问题跟踪表.xlsx
+++ b/1.东方阿尔法-迅策资产数据管理系统客户需求和问题跟踪表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HAO\Desktop\IPB-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F64BEB3-DB76-4F9A-AABB-941590549117}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45ACF0AD-362A-4319-B47B-5A0DA5D99B13}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="87">
   <si>
     <t>客户原始需求</t>
   </si>
@@ -711,7 +711,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -874,15 +874,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -900,6 +891,21 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1379,23 +1385,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="56" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -1517,14 +1523,14 @@
       <c r="F5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
       <c r="I5" s="3">
         <v>3.36</v>
       </c>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
       <c r="M5" s="53"/>
     </row>
     <row r="6" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
@@ -1733,7 +1739,7 @@
       <c r="D13" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="62" t="s">
+      <c r="E13" s="59" t="s">
         <v>86</v>
       </c>
       <c r="F13" s="39"/>
@@ -1758,7 +1764,7 @@
       <c r="D14" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="E14" s="62" t="s">
+      <c r="E14" s="59" t="s">
         <v>86</v>
       </c>
       <c r="F14" s="39"/>
@@ -1772,15 +1778,15 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="22"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="57"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="22"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="60"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="57"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:M11" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -1818,7 +1824,7 @@
   <sheetViews>
     <sheetView zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="B10:E11"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2092,7 +2098,7 @@
       <c r="B9" s="46">
         <v>43558</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="63" t="s">
         <v>59</v>
       </c>
       <c r="D9" s="47" t="s">
@@ -2112,38 +2118,14 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="22">
-        <v>43565</v>
-      </c>
-      <c r="C10" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="59" t="s">
-        <v>83</v>
-      </c>
-      <c r="E10" s="60" t="s">
-        <v>84</v>
-      </c>
+      <c r="C10" s="64"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="57"/>
     </row>
     <row r="11" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="22">
-        <v>43565</v>
-      </c>
-      <c r="C11" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="59" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11" s="60" t="s">
-        <v>85</v>
-      </c>
+      <c r="C11" s="64"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
     </row>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>

--- a/1.东方阿尔法-迅策资产数据管理系统客户需求和问题跟踪表.xlsx
+++ b/1.东方阿尔法-迅策资产数据管理系统客户需求和问题跟踪表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HAO\Desktop\IPB-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45ACF0AD-362A-4319-B47B-5A0DA5D99B13}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B38101A-D0A1-4BDB-ADD0-56DEEFA3412B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="93">
   <si>
     <t>客户原始需求</t>
   </si>
@@ -387,6 +387,31 @@
   </si>
   <si>
     <t>详细图片</t>
+  </si>
+  <si>
+    <t>综合报表</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金报表中港股市值并未跟随行情变动，而是直接取得金证中的值</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合报表</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金报表中滚屏的时候，没有表头了，看下方数据时不清楚字段名</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据查询中的小数点后数据显示过多
+如持仓查询中左下角的资产占比</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据查询</t>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -562,7 +587,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -702,6 +727,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -711,7 +751,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -892,6 +932,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -901,11 +944,26 @@
     <xf numFmtId="49" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1367,7 +1425,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1385,23 +1443,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="62" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -1776,11 +1834,28 @@
       <c r="L14" s="53"/>
       <c r="M14" s="53"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="57"/>
+    <row r="15" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="65">
+        <v>43566</v>
+      </c>
+      <c r="B15" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="67"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="22"/>
@@ -1824,7 +1899,7 @@
   <sheetViews>
     <sheetView zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2098,7 +2173,7 @@
       <c r="B9" s="46">
         <v>43558</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="60" t="s">
         <v>59</v>
       </c>
       <c r="D9" s="47" t="s">
@@ -2118,14 +2193,52 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="64"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="57"/>
+      <c r="A10" s="68">
+        <v>9</v>
+      </c>
+      <c r="B10" s="65">
+        <v>43566</v>
+      </c>
+      <c r="C10" s="69" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
     </row>
     <row r="11" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" s="64"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
+      <c r="A11" s="68">
+        <v>10</v>
+      </c>
+      <c r="B11" s="65">
+        <v>43566</v>
+      </c>
+      <c r="C11" s="69" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
     </row>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>

--- a/1.东方阿尔法-迅策资产数据管理系统客户需求和问题跟踪表.xlsx
+++ b/1.东方阿尔法-迅策资产数据管理系统客户需求和问题跟踪表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HAO\Desktop\IPB-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B38101A-D0A1-4BDB-ADD0-56DEEFA3412B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF74FF6B-FD88-4EE2-B7D3-17ABAD7014B3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="102">
   <si>
     <t>客户原始需求</t>
   </si>
@@ -279,10 +279,6 @@
     <t>待规划</t>
   </si>
   <si>
-    <t>test</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>计划修改</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -292,19 +288,19 @@
   </si>
   <si>
     <t>分仓1.10.1</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>分仓程序异常崩溃</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>综合报表中净资产计算不正确，未计算pb中的应收应付信息</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>TAPD缺陷单</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>风控模块</t>
@@ -324,6 +320,55 @@
   </si>
   <si>
     <t>3.35.2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+综合报表-资产明细中个股盈亏比例排序（通过排序可看出该哪支股票盈最多、亏最多）、市值占净资产排序</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>指令交易</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易可用余额取T+1可用</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮动盈亏精度有问题、浮动率格式统一，右对齐，小数点后两位即可</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>详细图片</t>
+  </si>
+  <si>
+    <t>综合报表</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金报表中港股市值并未跟随行情变动，而是直接取得金证中的值</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合报表</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金报表中滚屏的时候，没有表头了，看下方数据时不清楚字段名</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据查询中的小数点后数据显示过多
+如持仓查询中左下角的资产占比</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据查询</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月下旬</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -340,13 +385,12 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>持仓成本（成本单价）、股票市值/基金净资产（非该资产单元）、最新价、</t>
+      <t>持仓成本（成本单价）、股票市值/基金净资产（非该资产单元）、最新价、应收、应付、</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
@@ -363,55 +407,45 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>、应收、应付
+      <t>、
 持仓中股票、基金、债券市值占净资产比</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">
-综合报表-资产明细中个股盈亏比例排序（通过排序可看出该哪支股票盈最多、亏最多）、市值占净资产排序</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>指令交易</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易可用余额取T+1可用</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>浮动盈亏精度有问题、浮动率格式统一，右对齐，小数点后两位即可</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>详细图片</t>
-  </si>
-  <si>
-    <t>综合报表</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>基金报表中港股市值并未跟随行情变动，而是直接取得金证中的值</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>综合报表</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>基金报表中滚屏的时候，没有表头了，看下方数据时不清楚字段名</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据查询中的小数点后数据显示过多
-如持仓查询中左下角的资产占比</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据查询</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <t>版本3.35解决</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合报表刷新优化</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案待确认</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPB直连</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPB直连对接中信恒生08柜台</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试中</t>
+  </si>
+  <si>
+    <t>IPB直连对接申万金证WIN版</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>头寸管理</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>头寸调整同步预估值的接口数据</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -508,15 +542,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -543,6 +568,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -587,7 +620,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -742,16 +775,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -839,13 +887,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -905,7 +953,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -920,28 +968,10 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -964,6 +994,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1422,10 +1482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1443,23 +1503,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="63" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -1515,9 +1575,7 @@
       <c r="D3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>69</v>
-      </c>
+      <c r="E3" s="5"/>
       <c r="F3" s="14" t="s">
         <v>12</v>
       </c>
@@ -1527,7 +1585,7 @@
       <c r="H3" s="6"/>
       <c r="I3" s="3"/>
       <c r="J3" s="7">
-        <v>43581</v>
+        <v>43582</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>67</v>
@@ -1535,7 +1593,7 @@
       <c r="L3" s="7"/>
       <c r="M3" s="8"/>
     </row>
-    <row r="4" spans="1:13" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24">
         <v>43489</v>
       </c>
@@ -1546,7 +1604,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E4" s="25"/>
       <c r="F4" s="15" t="s">
@@ -1575,7 +1633,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E5" s="25"/>
       <c r="F5" s="15" t="s">
@@ -1717,7 +1775,7 @@
         <v>26</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="20">
@@ -1743,7 +1801,7 @@
         <v>25</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E11" s="28"/>
       <c r="F11" s="18" t="s">
@@ -1752,9 +1810,11 @@
       <c r="G11" s="6"/>
       <c r="H11" s="8"/>
       <c r="I11" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="J11" s="21"/>
+        <v>79</v>
+      </c>
+      <c r="J11" s="21" t="s">
+        <v>91</v>
+      </c>
       <c r="K11" s="7" t="s">
         <v>68</v>
       </c>
@@ -1769,10 +1829,10 @@
         <v>24</v>
       </c>
       <c r="C12" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="43" t="s">
         <v>76</v>
-      </c>
-      <c r="D12" s="43" t="s">
-        <v>77</v>
       </c>
       <c r="E12" s="53"/>
       <c r="F12" s="39"/>
@@ -1792,13 +1852,13 @@
         <v>24</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D13" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="56" t="s">
         <v>84</v>
-      </c>
-      <c r="E13" s="59" t="s">
-        <v>86</v>
       </c>
       <c r="F13" s="39"/>
       <c r="G13" s="53"/>
@@ -1817,13 +1877,13 @@
         <v>24</v>
       </c>
       <c r="C14" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" s="59" t="s">
-        <v>86</v>
+      <c r="E14" s="56" t="s">
+        <v>84</v>
       </c>
       <c r="F14" s="39"/>
       <c r="G14" s="53"/>
@@ -1835,33 +1895,137 @@
       <c r="M14" s="53"/>
     </row>
     <row r="15" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="65">
+      <c r="A15" s="59">
         <v>43566</v>
       </c>
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15" s="64" t="s">
-        <v>90</v>
-      </c>
-      <c r="E15" s="67"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="67"/>
+      <c r="C15" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="61"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="61"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="57"/>
+      <c r="A16" s="65">
+        <v>43556</v>
+      </c>
+      <c r="B16" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="66" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="68"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="L16" s="69"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="65">
+        <v>43489</v>
+      </c>
+      <c r="B17" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="69"/>
+      <c r="F17" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="68"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="71">
+        <v>43573</v>
+      </c>
+      <c r="K17" s="71" t="s">
+        <v>98</v>
+      </c>
+      <c r="L17" s="69"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="65">
+        <v>43546</v>
+      </c>
+      <c r="B18" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="69"/>
+      <c r="F18" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="68"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="71" t="s">
+        <v>98</v>
+      </c>
+      <c r="L18" s="69"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="65">
+        <v>43518</v>
+      </c>
+      <c r="B19" s="66" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="66" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" s="69"/>
+      <c r="F19" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="68"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="70">
+        <v>3.36</v>
+      </c>
+      <c r="J19" s="69"/>
+      <c r="K19" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="L19" s="69"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:M11" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -1871,13 +2035,13 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F7" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F7 F16:F19" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H7 G3:G11" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H7 G3:G11 G16:G19" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"计划修改,无需修改,待明确,需求池,无法实现"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K11" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K11 K16:K19" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"待规划,开发中,测试中,已实现,已交付"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L7" xr:uid="{00000000-0002-0000-0000-000003000000}">
@@ -1899,7 +2063,7 @@
   <sheetViews>
     <sheetView zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2070,12 +2234,12 @@
         <v>58</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H5" s="37"/>
       <c r="I5" s="37"/>
       <c r="J5" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K5" s="34" t="s">
         <v>48</v>
@@ -2110,7 +2274,9 @@
         <v>55</v>
       </c>
       <c r="K6" s="39"/>
-      <c r="L6" s="42"/>
+      <c r="L6" s="42" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="45">
@@ -2150,11 +2316,11 @@
         <v>43557</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D8" s="39"/>
       <c r="E8" s="43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F8" s="44"/>
       <c r="G8" s="44"/>
@@ -2173,14 +2339,14 @@
       <c r="B9" s="46">
         <v>43558</v>
       </c>
-      <c r="C9" s="60" t="s">
+      <c r="C9" s="57" t="s">
         <v>59</v>
       </c>
       <c r="D9" s="47" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F9" s="50"/>
       <c r="G9" s="50"/>
@@ -2189,59 +2355,59 @@
       <c r="J9" s="45"/>
       <c r="K9" s="45"/>
       <c r="L9" s="51" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="68">
+      <c r="A10" s="62">
         <v>9</v>
       </c>
-      <c r="B10" s="65">
+      <c r="B10" s="59">
         <v>43566</v>
       </c>
-      <c r="C10" s="69" t="s">
+      <c r="C10" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="66" t="s">
-        <v>87</v>
-      </c>
-      <c r="E10" s="64" t="s">
-        <v>88</v>
-      </c>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="68"/>
-      <c r="K10" s="68"/>
-      <c r="L10" s="68"/>
+      <c r="D10" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
     </row>
     <row r="11" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="68">
+      <c r="A11" s="62">
         <v>10</v>
       </c>
-      <c r="B11" s="65">
+      <c r="B11" s="59">
         <v>43566</v>
       </c>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" s="64" t="s">
-        <v>91</v>
-      </c>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
+      <c r="D11" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="62"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="L9" r:id="rId1" xr:uid="{B0CAB68E-D005-48CC-98F2-254502103C3D}"/>
   </hyperlinks>
@@ -2260,7 +2426,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/1.东方阿尔法-迅策资产数据管理系统客户需求和问题跟踪表.xlsx
+++ b/1.东方阿尔法-迅策资产数据管理系统客户需求和问题跟踪表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HAO\Desktop\IPB-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF74FF6B-FD88-4EE2-B7D3-17ABAD7014B3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC3702B-00F3-40D3-9EC3-CA1B2DF18C3F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="104">
   <si>
     <t>客户原始需求</t>
   </si>
@@ -366,10 +366,6 @@
   <si>
     <t>数据查询</t>
     <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>4月下旬</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -445,6 +441,18 @@
   </si>
   <si>
     <t>头寸调整同步预估值的接口数据</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复中</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘昊</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.35.2</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -799,7 +807,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1024,6 +1032,9 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1484,8 +1495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1604,7 +1615,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E4" s="25"/>
       <c r="F4" s="15" t="s">
@@ -1612,12 +1623,12 @@
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
-      <c r="I4" s="3">
-        <v>3.36</v>
+      <c r="I4" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L4" s="7"/>
       <c r="M4" s="8"/>
@@ -1641,11 +1652,13 @@
       </c>
       <c r="G5" s="54"/>
       <c r="H5" s="54"/>
-      <c r="I5" s="3">
-        <v>3.36</v>
+      <c r="I5" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
+      <c r="K5" s="55" t="s">
+        <v>67</v>
+      </c>
       <c r="L5" s="55"/>
       <c r="M5" s="53"/>
     </row>
@@ -1812,11 +1825,11 @@
       <c r="I11" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="J11" s="21" t="s">
-        <v>91</v>
+      <c r="J11" s="7">
+        <v>43591</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
@@ -1928,10 +1941,10 @@
         <v>25</v>
       </c>
       <c r="D16" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="66" t="s">
         <v>94</v>
-      </c>
-      <c r="E16" s="66" t="s">
-        <v>95</v>
       </c>
       <c r="F16" s="67" t="s">
         <v>12</v>
@@ -1953,10 +1966,10 @@
         <v>24</v>
       </c>
       <c r="C17" s="66" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="66" t="s">
         <v>96</v>
-      </c>
-      <c r="D17" s="66" t="s">
-        <v>97</v>
       </c>
       <c r="E17" s="69"/>
       <c r="F17" s="67" t="s">
@@ -1969,7 +1982,7 @@
         <v>43573</v>
       </c>
       <c r="K17" s="71" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L17" s="69"/>
     </row>
@@ -1981,10 +1994,10 @@
         <v>24</v>
       </c>
       <c r="C18" s="66" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D18" s="66" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E18" s="69"/>
       <c r="F18" s="67" t="s">
@@ -1995,7 +2008,7 @@
       <c r="I18" s="70"/>
       <c r="J18" s="69"/>
       <c r="K18" s="71" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L18" s="69"/>
     </row>
@@ -2007,10 +2020,10 @@
         <v>24</v>
       </c>
       <c r="C19" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="66" t="s">
         <v>100</v>
-      </c>
-      <c r="D19" s="66" t="s">
-        <v>101</v>
       </c>
       <c r="E19" s="69"/>
       <c r="F19" s="67" t="s">
@@ -2063,7 +2076,7 @@
   <sheetViews>
     <sheetView zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2275,7 +2288,7 @@
       </c>
       <c r="K6" s="39"/>
       <c r="L6" s="42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2350,10 +2363,16 @@
       </c>
       <c r="F9" s="50"/>
       <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
+      <c r="H9" s="75">
+        <v>43574</v>
+      </c>
       <c r="I9" s="50"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
+      <c r="J9" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="K9" s="47" t="s">
+        <v>102</v>
+      </c>
       <c r="L9" s="51" t="s">
         <v>74</v>
       </c>

--- a/1.东方阿尔法-迅策资产数据管理系统客户需求和问题跟踪表.xlsx
+++ b/1.东方阿尔法-迅策资产数据管理系统客户需求和问题跟踪表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HAO\Desktop\IPB-Notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HAO\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC3702B-00F3-40D3-9EC3-CA1B2DF18C3F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F006CB-4A72-4B25-9264-FE9B6F16C7C9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,14 +19,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">客户问题跟踪表!$D$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">客户需求跟踪表!$A$2:$M$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">客户需求跟踪表!$A$2:$N$11</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="120">
   <si>
     <t>客户原始需求</t>
   </si>
@@ -128,10 +128,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>受理产品经理</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>计划修改</t>
   </si>
   <si>
@@ -169,9 +165,6 @@
   <si>
     <t>问题状态</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>反馈人</t>
   </si>
   <si>
     <t>分仓程序
@@ -195,10 +188,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>刘昊</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>委托漏单：11:09:25  300182，买入5300股。这个金证系统发出委托，状态是已报，但是中信证券客户端上根本没看到这笔，所以最后也没法儿撤单回来。</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -269,10 +258,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>之后添加自定义匹配后解决</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>开发中</t>
   </si>
   <si>
@@ -296,10 +281,6 @@
   </si>
   <si>
     <t>综合报表中净资产计算不正确，未计算pb中的应收应付信息</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>TAPD缺陷单</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -417,10 +398,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>方案待确认</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>IPB直连</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -448,11 +425,99 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>刘昊</t>
+    <t>3.35.2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案确认，开发中</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>T0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>T1</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>3.35.2</t>
+    <t>优先级</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>T0</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAPD</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>处理人</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>王亚军</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡嘉琳</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>李艺超</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>王亚军</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘俊君</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘俊君</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>李艺超</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品经理</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘俊君</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄盟</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>李艺超、潘俊君</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡杰</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -590,7 +655,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -627,8 +692,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -798,6 +869,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -807,7 +908,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1024,17 +1125,80 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1493,10 +1657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1507,32 +1671,35 @@
     <col min="4" max="4" width="57" customWidth="1"/>
     <col min="5" max="5" width="71.44140625" customWidth="1"/>
     <col min="6" max="6" width="6.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.77734375" customWidth="1"/>
-    <col min="12" max="12" width="11" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+    <row r="1" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="74" t="s">
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
-      <c r="M1" s="74"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H1" s="92"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
@@ -1555,25 +1722,28 @@
         <v>7</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="I2" s="86" t="s">
+        <v>119</v>
+      </c>
+      <c r="J2" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="K2" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="L2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="M2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="N2" s="19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="100.8" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>43489</v>
       </c>
@@ -1591,20 +1761,25 @@
         <v>12</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="7">
+        <v>30</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="J3" s="87" t="s">
+        <v>113</v>
+      </c>
+      <c r="K3" s="7">
         <v>43582</v>
       </c>
-      <c r="K3" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L3" s="7"/>
-      <c r="M3" s="8"/>
-    </row>
-    <row r="4" spans="1:13" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M3" s="7"/>
+      <c r="N3" s="94"/>
+    </row>
+    <row r="4" spans="1:14" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24">
         <v>43489</v>
       </c>
@@ -1615,25 +1790,30 @@
         <v>13</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E4" s="25"/>
       <c r="F4" s="15" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" s="7"/>
-      <c r="M4" s="8"/>
-    </row>
-    <row r="5" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="H4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="J4" s="87" t="s">
+        <v>115</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" s="7"/>
+      <c r="N4" s="94"/>
+    </row>
+    <row r="5" spans="1:14" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A5" s="24">
         <v>43489</v>
       </c>
@@ -1644,25 +1824,30 @@
         <v>13</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E5" s="25"/>
       <c r="F5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="L5" s="55"/>
-      <c r="M5" s="53"/>
-    </row>
-    <row r="6" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="H5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="J5" s="87" t="s">
+        <v>115</v>
+      </c>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="M5" s="55"/>
+      <c r="N5" s="94"/>
+    </row>
+    <row r="6" spans="1:14" ht="55.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>43489</v>
       </c>
@@ -1677,19 +1862,24 @@
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="16" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="8"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H6" s="3"/>
+      <c r="I6" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="J6" s="87" t="s">
+        <v>116</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M6" s="7"/>
+      <c r="N6" s="94"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>43489</v>
       </c>
@@ -1707,16 +1897,21 @@
         <v>22</v>
       </c>
       <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L7" s="7"/>
-      <c r="M7" s="8"/>
-    </row>
-    <row r="8" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="H7" s="3"/>
+      <c r="I7" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="J7" s="87" t="s">
+        <v>116</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M7" s="7"/>
+      <c r="N7" s="94"/>
+    </row>
+    <row r="8" spans="1:14" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>43489</v>
       </c>
@@ -1735,15 +1930,20 @@
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L8" s="8"/>
+      <c r="I8" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" s="87" t="s">
+        <v>116</v>
+      </c>
+      <c r="K8" s="20"/>
+      <c r="L8" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="M8" s="8"/>
-    </row>
-    <row r="9" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="N8" s="94"/>
+    </row>
+    <row r="9" spans="1:14" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>43489</v>
       </c>
@@ -1762,15 +1962,20 @@
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L9" s="8"/>
+      <c r="I9" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="J9" s="87" t="s">
+        <v>116</v>
+      </c>
+      <c r="K9" s="20"/>
+      <c r="L9" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="M9" s="8"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="94"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43489</v>
       </c>
@@ -1788,22 +1993,27 @@
         <v>26</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="20">
+        <v>65</v>
+      </c>
+      <c r="H10" s="20">
         <v>3.35</v>
       </c>
-      <c r="J10" s="7">
+      <c r="I10" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" s="88" t="s">
+        <v>113</v>
+      </c>
+      <c r="K10" s="7">
         <v>43582</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L10" s="8"/>
+      <c r="L10" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="M10" s="8"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="94"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="26">
         <v>43546</v>
       </c>
@@ -1814,27 +2024,32 @@
         <v>25</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E11" s="28"/>
       <c r="F11" s="18" t="s">
         <v>26</v>
       </c>
       <c r="G11" s="6"/>
-      <c r="H11" s="8"/>
+      <c r="H11" s="21" t="s">
+        <v>74</v>
+      </c>
       <c r="I11" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="J11" s="7">
+        <v>99</v>
+      </c>
+      <c r="J11" s="88" t="s">
+        <v>115</v>
+      </c>
+      <c r="K11" s="7">
         <v>43591</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L11" s="8"/>
+      <c r="L11" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="M11" s="8"/>
-    </row>
-    <row r="12" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="N11" s="94"/>
+    </row>
+    <row r="12" spans="1:14" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A12" s="52">
         <v>43556</v>
       </c>
@@ -1842,22 +2057,27 @@
         <v>24</v>
       </c>
       <c r="C12" s="43" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E12" s="53"/>
       <c r="F12" s="39"/>
       <c r="G12" s="53"/>
       <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="53"/>
+      <c r="I12" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="J12" s="87" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" s="39"/>
       <c r="L12" s="53"/>
       <c r="M12" s="53"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12" s="94"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43565</v>
       </c>
@@ -1865,24 +2085,29 @@
         <v>24</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D13" s="43" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E13" s="56" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F13" s="39"/>
       <c r="G13" s="53"/>
       <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
+      <c r="I13" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="J13" s="88" t="s">
+        <v>113</v>
+      </c>
       <c r="K13" s="53"/>
       <c r="L13" s="53"/>
       <c r="M13" s="53"/>
-    </row>
-    <row r="14" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="N13" s="94"/>
+    </row>
+    <row r="14" spans="1:14" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43565</v>
       </c>
@@ -1890,24 +2115,29 @@
         <v>24</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D14" s="43" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E14" s="56" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F14" s="39"/>
       <c r="G14" s="53"/>
       <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
+      <c r="I14" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="J14" s="88" t="s">
+        <v>113</v>
+      </c>
       <c r="K14" s="53"/>
       <c r="L14" s="53"/>
       <c r="M14" s="53"/>
-    </row>
-    <row r="15" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="N14" s="94"/>
+    </row>
+    <row r="15" spans="1:14" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A15" s="59">
         <v>43566</v>
       </c>
@@ -1915,50 +2145,63 @@
         <v>24</v>
       </c>
       <c r="C15" s="60" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D15" s="58" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E15" s="61"/>
       <c r="F15" s="62"/>
       <c r="G15" s="61"/>
       <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
+      <c r="I15" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="J15" s="88" t="s">
+        <v>115</v>
+      </c>
       <c r="K15" s="61"/>
       <c r="L15" s="61"/>
       <c r="M15" s="61"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15" s="94"/>
+    </row>
+    <row r="16" spans="1:14" ht="36" x14ac:dyDescent="0.25">
       <c r="A16" s="65">
         <v>43556</v>
       </c>
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="66" t="s">
+      <c r="C16" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="66" t="s">
-        <v>93</v>
-      </c>
-      <c r="E16" s="66" t="s">
-        <v>94</v>
-      </c>
-      <c r="F16" s="67" t="s">
+      <c r="D16" s="73" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="73" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="68"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="71" t="s">
-        <v>68</v>
-      </c>
-      <c r="L16" s="69"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G16" s="75"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="95" t="s">
+        <v>99</v>
+      </c>
+      <c r="J16" s="89" t="s">
+        <v>117</v>
+      </c>
+      <c r="K16" s="78">
+        <v>43574</v>
+      </c>
+      <c r="L16" s="79" t="s">
+        <v>63</v>
+      </c>
+      <c r="M16" s="76"/>
+      <c r="N16" s="94"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="65">
         <v>43489</v>
       </c>
@@ -1966,27 +2209,33 @@
         <v>24</v>
       </c>
       <c r="C17" s="66" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D17" s="66" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E17" s="69"/>
       <c r="F17" s="67" t="s">
         <v>14</v>
       </c>
       <c r="G17" s="68"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="71">
+      <c r="H17" s="70"/>
+      <c r="I17" s="96" t="s">
+        <v>98</v>
+      </c>
+      <c r="J17" s="87" t="s">
+        <v>113</v>
+      </c>
+      <c r="K17" s="71">
         <v>43573</v>
       </c>
-      <c r="K17" s="71" t="s">
-        <v>97</v>
-      </c>
-      <c r="L17" s="69"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L17" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="M17" s="69"/>
+      <c r="N17" s="94"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="65">
         <v>43546</v>
       </c>
@@ -1994,25 +2243,31 @@
         <v>24</v>
       </c>
       <c r="C18" s="66" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D18" s="66" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E18" s="69"/>
       <c r="F18" s="67" t="s">
         <v>14</v>
       </c>
       <c r="G18" s="68"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="71" t="s">
-        <v>97</v>
-      </c>
-      <c r="L18" s="69"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H18" s="70"/>
+      <c r="I18" s="96" t="s">
+        <v>98</v>
+      </c>
+      <c r="J18" s="87" t="s">
+        <v>113</v>
+      </c>
+      <c r="K18" s="69"/>
+      <c r="L18" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="M18" s="69"/>
+      <c r="N18" s="94"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="65">
         <v>43518</v>
       </c>
@@ -2020,44 +2275,49 @@
         <v>24</v>
       </c>
       <c r="C19" s="66" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D19" s="66" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E19" s="69"/>
       <c r="F19" s="67" t="s">
         <v>14</v>
       </c>
       <c r="G19" s="68"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="70">
+      <c r="H19" s="70">
         <v>3.36</v>
       </c>
-      <c r="J19" s="69"/>
-      <c r="K19" s="71" t="s">
-        <v>68</v>
-      </c>
-      <c r="L19" s="69"/>
+      <c r="I19" s="96" t="s">
+        <v>98</v>
+      </c>
+      <c r="J19" s="87" t="s">
+        <v>118</v>
+      </c>
+      <c r="K19" s="69"/>
+      <c r="L19" s="71" t="s">
+        <v>64</v>
+      </c>
+      <c r="M19" s="69"/>
+      <c r="N19" s="94"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:M11" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:M1"/>
+    <mergeCell ref="G1:N1"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F7 F16:F19" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H7 G3:G11 G16:G19" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G11 G16:G19" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"计划修改,无需修改,待明确,需求池,无法实现"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K11 K16:K19" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L11 L16:L19" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"待规划,开发中,测试中,已实现,已交付"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L7" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M7" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2072,11 +2332,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2089,51 +2349,55 @@
     <col min="7" max="7" width="40" style="23" customWidth="1"/>
     <col min="8" max="8" width="15" style="23" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="23" customWidth="1"/>
-    <col min="10" max="10" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="1"/>
+    <col min="10" max="10" width="8" style="85" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="C1" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="D1" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="E1" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="F1" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="G1" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="H1" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="I1" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="J1" s="80" t="s">
+        <v>102</v>
+      </c>
+      <c r="K1" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="K1" s="30" t="s">
-        <v>42</v>
-      </c>
       <c r="L1" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="M1" s="30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A2" s="32">
         <v>1</v>
       </c>
@@ -2141,31 +2405,32 @@
         <v>43495</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D2" s="35"/>
       <c r="E2" s="36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G2" s="37"/>
       <c r="H2" s="38">
         <v>43539</v>
       </c>
       <c r="I2" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="34" t="s">
-        <v>47</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="J2" s="81"/>
       <c r="K2" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="32"/>
-    </row>
-    <row r="3" spans="1:12" ht="57.6" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="L2" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="M2" s="32"/>
+    </row>
+    <row r="3" spans="1:13" ht="57.6" x14ac:dyDescent="0.25">
       <c r="A3" s="32">
         <v>2</v>
       </c>
@@ -2173,33 +2438,34 @@
         <v>43495</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D3" s="35"/>
       <c r="E3" s="36" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G3" s="36" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H3" s="38">
         <v>43539</v>
       </c>
       <c r="I3" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>47</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="J3" s="81"/>
       <c r="K3" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="L3" s="32"/>
-    </row>
-    <row r="4" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="M3" s="32"/>
+    </row>
+    <row r="4" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
       <c r="A4" s="39">
         <v>3</v>
       </c>
@@ -2207,29 +2473,32 @@
         <v>43543</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D4" s="42"/>
       <c r="E4" s="43" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F4" s="43" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G4" s="43" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H4" s="44"/>
       <c r="I4" s="44"/>
-      <c r="J4" s="41" t="s">
-        <v>55</v>
+      <c r="J4" s="82" t="s">
+        <v>103</v>
       </c>
       <c r="K4" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="L4" s="39"/>
-    </row>
-    <row r="5" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="L4" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="M4" s="41"/>
+    </row>
+    <row r="5" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32">
         <v>4</v>
       </c>
@@ -2237,29 +2506,30 @@
         <v>43545</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D5" s="32"/>
       <c r="E5" s="36" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H5" s="37"/>
       <c r="I5" s="37"/>
-      <c r="J5" s="34" t="s">
-        <v>77</v>
-      </c>
+      <c r="J5" s="83"/>
       <c r="K5" s="34" t="s">
-        <v>48</v>
-      </c>
-      <c r="L5" s="35"/>
-    </row>
-    <row r="6" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="L5" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="M5" s="35"/>
+    </row>
+    <row r="6" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="39">
         <v>5</v>
       </c>
@@ -2267,31 +2537,36 @@
         <v>43546</v>
       </c>
       <c r="C6" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="G6" s="43" t="s">
         <v>60</v>
-      </c>
-      <c r="E6" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="43" t="s">
-        <v>63</v>
       </c>
       <c r="H6" s="44"/>
       <c r="I6" s="44"/>
-      <c r="J6" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="K6" s="39"/>
-      <c r="L6" s="42" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J6" s="82" t="s">
+        <v>101</v>
+      </c>
+      <c r="K6" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="M6" s="42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="45">
         <v>6</v>
       </c>
@@ -2299,29 +2574,32 @@
         <v>43546</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D7" s="47" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="49" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F7" s="49" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G7" s="50"/>
       <c r="H7" s="50"/>
       <c r="I7" s="50"/>
-      <c r="J7" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="K7" s="45"/>
-      <c r="L7" s="48" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="84" t="s">
+        <v>103</v>
+      </c>
+      <c r="K7" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="M7" s="48"/>
+    </row>
+    <row r="8" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="39">
         <v>7</v>
       </c>
@@ -2329,23 +2607,28 @@
         <v>43557</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D8" s="39"/>
       <c r="E8" s="43" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F8" s="44"/>
       <c r="G8" s="44"/>
       <c r="H8" s="44"/>
       <c r="I8" s="44"/>
-      <c r="J8" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="K8" s="39"/>
-      <c r="L8" s="39"/>
-    </row>
-    <row r="9" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J8" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="L8" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="M8" s="39"/>
+    </row>
+    <row r="9" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="45">
         <v>8</v>
       </c>
@@ -2353,31 +2636,34 @@
         <v>43558</v>
       </c>
       <c r="C9" s="57" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D9" s="47" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="49" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F9" s="50"/>
       <c r="G9" s="50"/>
-      <c r="H9" s="75">
+      <c r="H9" s="72">
         <v>43574</v>
       </c>
       <c r="I9" s="50"/>
-      <c r="J9" s="47" t="s">
+      <c r="J9" s="84" t="s">
         <v>101</v>
       </c>
       <c r="K9" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="L9" s="51" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="L9" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="M9" s="51" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="62">
         <v>9</v>
       </c>
@@ -2385,23 +2671,28 @@
         <v>43566</v>
       </c>
       <c r="C10" s="63" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D10" s="60" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E10" s="58" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F10" s="64"/>
       <c r="G10" s="64"/>
       <c r="H10" s="64"/>
       <c r="I10" s="64"/>
-      <c r="J10" s="62"/>
+      <c r="J10" s="82" t="s">
+        <v>104</v>
+      </c>
       <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-    </row>
-    <row r="11" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L10" s="60" t="s">
+        <v>112</v>
+      </c>
+      <c r="M10" s="62"/>
+    </row>
+    <row r="11" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="62">
         <v>10</v>
       </c>
@@ -2409,26 +2700,31 @@
         <v>43566</v>
       </c>
       <c r="C11" s="63" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D11" s="60" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E11" s="58" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F11" s="64"/>
       <c r="G11" s="64"/>
       <c r="H11" s="64"/>
       <c r="I11" s="64"/>
-      <c r="J11" s="62"/>
+      <c r="J11" s="82" t="s">
+        <v>101</v>
+      </c>
       <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
+      <c r="L11" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="M11" s="62"/>
     </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="L9" r:id="rId1" xr:uid="{B0CAB68E-D005-48CC-98F2-254502103C3D}"/>
+    <hyperlink ref="M9" r:id="rId1" display="TAPD缺陷单" xr:uid="{B0CAB68E-D005-48CC-98F2-254502103C3D}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/1.东方阿尔法-迅策资产数据管理系统客户需求和问题跟踪表.xlsx
+++ b/1.东方阿尔法-迅策资产数据管理系统客户需求和问题跟踪表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HAO\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HAO\Desktop\IPB-Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F006CB-4A72-4B25-9264-FE9B6F16C7C9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9826C805-F3A4-4461-A868-E37DB97157AF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="客户需求跟踪表" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="126">
   <si>
     <t>客户原始需求</t>
   </si>
@@ -137,9 +137,6 @@
   <si>
     <t>日期</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>版本</t>
   </si>
   <si>
     <t>模块</t>
@@ -519,6 +516,34 @@
   <si>
     <t>优先级</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月底</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>ipb系统
+3.35.2/0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现版本</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合报表</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>基金报表中份额为整数四舍五入，需要调整</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合报表中的基金净值存在问题，需要调整</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>已实现</t>
   </si>
 </sst>
 </file>
@@ -699,7 +724,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -899,6 +924,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -908,7 +948,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1062,9 +1102,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1080,9 +1117,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1125,9 +1159,6 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1179,18 +1210,6 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1199,6 +1218,48 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1659,27 +1720,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
     <col min="4" max="4" width="57" customWidth="1"/>
-    <col min="5" max="5" width="71.44140625" customWidth="1"/>
-    <col min="6" max="6" width="6.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="71.5" customWidth="1"/>
+    <col min="6" max="6" width="6.375" style="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
@@ -1699,7 +1760,7 @@
       <c r="M1" s="92"/>
       <c r="N1" s="92"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
@@ -1724,11 +1785,11 @@
       <c r="H2" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="86" t="s">
-        <v>119</v>
-      </c>
-      <c r="J2" s="86" t="s">
-        <v>114</v>
+      <c r="I2" s="83" t="s">
+        <v>118</v>
+      </c>
+      <c r="J2" s="83" t="s">
+        <v>113</v>
       </c>
       <c r="K2" s="19" t="s">
         <v>28</v>
@@ -1743,7 +1804,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="100.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="81" x14ac:dyDescent="0.15">
       <c r="A3" s="11">
         <v>43489</v>
       </c>
@@ -1765,21 +1826,21 @@
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="J3" s="87" t="s">
-        <v>113</v>
+        <v>97</v>
+      </c>
+      <c r="J3" s="84" t="s">
+        <v>112</v>
       </c>
       <c r="K3" s="7">
         <v>43582</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M3" s="7"/>
-      <c r="N3" s="94"/>
-    </row>
-    <row r="4" spans="1:14" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N3" s="87"/>
+    </row>
+    <row r="4" spans="1:14" ht="61.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="24">
         <v>43489</v>
       </c>
@@ -1790,7 +1851,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E4" s="25"/>
       <c r="F4" s="15" t="s">
@@ -1798,22 +1859,22 @@
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="J4" s="87" t="s">
-        <v>115</v>
+        <v>98</v>
+      </c>
+      <c r="J4" s="84" t="s">
+        <v>114</v>
       </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M4" s="7"/>
-      <c r="N4" s="94"/>
-    </row>
-    <row r="5" spans="1:14" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="N4" s="87"/>
+    </row>
+    <row r="5" spans="1:14" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A5" s="24">
         <v>43489</v>
       </c>
@@ -1824,30 +1885,30 @@
         <v>13</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E5" s="25"/>
       <c r="F5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="54"/>
+      <c r="G5" s="53"/>
       <c r="H5" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="J5" s="87" t="s">
-        <v>115</v>
-      </c>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="M5" s="55"/>
-      <c r="N5" s="94"/>
-    </row>
-    <row r="6" spans="1:14" ht="55.8" customHeight="1" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="J5" s="84" t="s">
+        <v>114</v>
+      </c>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="M5" s="54"/>
+      <c r="N5" s="87"/>
+    </row>
+    <row r="6" spans="1:14" ht="55.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11">
         <v>43489</v>
       </c>
@@ -1867,19 +1928,19 @@
       <c r="G6" s="6"/>
       <c r="H6" s="3"/>
       <c r="I6" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="J6" s="87" t="s">
-        <v>116</v>
+        <v>97</v>
+      </c>
+      <c r="J6" s="84" t="s">
+        <v>115</v>
       </c>
       <c r="K6" s="7"/>
       <c r="L6" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M6" s="7"/>
-      <c r="N6" s="94"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N6" s="87"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="11">
         <v>43489</v>
       </c>
@@ -1899,19 +1960,19 @@
       <c r="G7" s="6"/>
       <c r="H7" s="3"/>
       <c r="I7" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="J7" s="87" t="s">
-        <v>116</v>
+        <v>99</v>
+      </c>
+      <c r="J7" s="84" t="s">
+        <v>115</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M7" s="7"/>
-      <c r="N7" s="94"/>
-    </row>
-    <row r="8" spans="1:14" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="N7" s="87"/>
+    </row>
+    <row r="8" spans="1:14" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="11">
         <v>43489</v>
       </c>
@@ -1931,19 +1992,19 @@
       <c r="G8" s="6"/>
       <c r="H8" s="8"/>
       <c r="I8" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="J8" s="87" t="s">
-        <v>116</v>
+        <v>99</v>
+      </c>
+      <c r="J8" s="84" t="s">
+        <v>115</v>
       </c>
       <c r="K8" s="20"/>
       <c r="L8" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M8" s="8"/>
-      <c r="N8" s="94"/>
-    </row>
-    <row r="9" spans="1:14" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="N8" s="87"/>
+    </row>
+    <row r="9" spans="1:14" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="11">
         <v>43489</v>
       </c>
@@ -1963,19 +2024,19 @@
       <c r="G9" s="6"/>
       <c r="H9" s="8"/>
       <c r="I9" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="J9" s="87" t="s">
-        <v>116</v>
+        <v>99</v>
+      </c>
+      <c r="J9" s="84" t="s">
+        <v>115</v>
       </c>
       <c r="K9" s="20"/>
       <c r="L9" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M9" s="8"/>
-      <c r="N9" s="94"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N9" s="87"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>43489</v>
       </c>
@@ -1993,27 +2054,27 @@
         <v>26</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H10" s="20">
         <v>3.35</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="J10" s="88" t="s">
-        <v>113</v>
+        <v>97</v>
+      </c>
+      <c r="J10" s="85" t="s">
+        <v>112</v>
       </c>
       <c r="K10" s="7">
         <v>43582</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M10" s="8"/>
-      <c r="N10" s="94"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N10" s="87"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="26">
         <v>43546</v>
       </c>
@@ -2024,7 +2085,7 @@
         <v>25</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E11" s="28"/>
       <c r="F11" s="18" t="s">
@@ -2032,52 +2093,52 @@
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="J11" s="88" t="s">
-        <v>115</v>
+        <v>98</v>
+      </c>
+      <c r="J11" s="85" t="s">
+        <v>114</v>
       </c>
       <c r="K11" s="7">
         <v>43591</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M11" s="8"/>
-      <c r="N11" s="94"/>
-    </row>
-    <row r="12" spans="1:14" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="52">
+      <c r="N11" s="87"/>
+    </row>
+    <row r="12" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+      <c r="A12" s="51">
         <v>43556</v>
       </c>
       <c r="B12" s="43" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="53"/>
+      <c r="E12" s="52"/>
       <c r="F12" s="39"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
       <c r="I12" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="J12" s="87" t="s">
-        <v>116</v>
+        <v>99</v>
+      </c>
+      <c r="J12" s="84" t="s">
+        <v>115</v>
       </c>
       <c r="K12" s="39"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="94"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="87"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="40">
         <v>43565</v>
       </c>
@@ -2085,29 +2146,29 @@
         <v>24</v>
       </c>
       <c r="C13" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="56" t="s">
-        <v>79</v>
+      <c r="E13" s="55" t="s">
+        <v>78</v>
       </c>
       <c r="F13" s="39"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
       <c r="I13" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="J13" s="88" t="s">
-        <v>113</v>
-      </c>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="94"/>
-    </row>
-    <row r="14" spans="1:14" ht="28.8" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="J13" s="85" t="s">
+        <v>112</v>
+      </c>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="87"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" s="40">
         <v>43565</v>
       </c>
@@ -2115,191 +2176,191 @@
         <v>24</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D14" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="56" t="s">
-        <v>79</v>
-      </c>
       <c r="F14" s="39"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
       <c r="I14" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="J14" s="88" t="s">
-        <v>113</v>
-      </c>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="94"/>
-    </row>
-    <row r="15" spans="1:14" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="59">
+        <v>99</v>
+      </c>
+      <c r="J14" s="85" t="s">
+        <v>112</v>
+      </c>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="87"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A15" s="57">
         <v>43566</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="60" t="s">
+      <c r="C15" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="D15" s="58" t="s">
-        <v>83</v>
-      </c>
-      <c r="E15" s="61"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="60" t="s">
+      <c r="E15" s="59"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="58" t="s">
+        <v>97</v>
+      </c>
+      <c r="J15" s="85" t="s">
+        <v>114</v>
+      </c>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="87"/>
+    </row>
+    <row r="16" spans="1:14" ht="24" x14ac:dyDescent="0.15">
+      <c r="A16" s="63">
+        <v>43556</v>
+      </c>
+      <c r="B16" s="70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="70" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="72"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="88" t="s">
         <v>98</v>
       </c>
-      <c r="J15" s="88" t="s">
-        <v>115</v>
-      </c>
-      <c r="K15" s="61"/>
-      <c r="L15" s="61"/>
-      <c r="M15" s="61"/>
-      <c r="N15" s="94"/>
-    </row>
-    <row r="16" spans="1:14" ht="36" x14ac:dyDescent="0.25">
-      <c r="A16" s="65">
-        <v>43556</v>
-      </c>
-      <c r="B16" s="73" t="s">
+      <c r="J16" s="86" t="s">
+        <v>116</v>
+      </c>
+      <c r="K16" s="75">
+        <v>43591</v>
+      </c>
+      <c r="L16" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="M16" s="73"/>
+      <c r="N16" s="87"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A17" s="63">
+        <v>43489</v>
+      </c>
+      <c r="B17" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="73" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="73" t="s">
+      <c r="C17" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="E16" s="73" t="s">
+      <c r="D17" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="67"/>
+      <c r="F17" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="66"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="F16" s="74" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="75"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="95" t="s">
-        <v>99</v>
-      </c>
-      <c r="J16" s="89" t="s">
+      <c r="J17" s="84" t="s">
+        <v>112</v>
+      </c>
+      <c r="K17" s="69">
+        <v>43583</v>
+      </c>
+      <c r="L17" s="69" t="s">
+        <v>125</v>
+      </c>
+      <c r="M17" s="67"/>
+      <c r="N17" s="87"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A18" s="63">
+        <v>43546</v>
+      </c>
+      <c r="B18" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="67"/>
+      <c r="F18" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="66"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="J18" s="84" t="s">
+        <v>112</v>
+      </c>
+      <c r="K18" s="67"/>
+      <c r="L18" s="69" t="s">
+        <v>90</v>
+      </c>
+      <c r="M18" s="67"/>
+      <c r="N18" s="87"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A19" s="63">
+        <v>43518</v>
+      </c>
+      <c r="B19" s="64" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="67"/>
+      <c r="F19" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="66"/>
+      <c r="H19" s="68">
+        <v>3.36</v>
+      </c>
+      <c r="I19" s="89" t="s">
+        <v>97</v>
+      </c>
+      <c r="J19" s="84" t="s">
         <v>117</v>
       </c>
-      <c r="K16" s="78">
-        <v>43574</v>
-      </c>
-      <c r="L16" s="79" t="s">
+      <c r="K19" s="67"/>
+      <c r="L19" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="M16" s="76"/>
-      <c r="N16" s="94"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="65">
-        <v>43489</v>
-      </c>
-      <c r="B17" s="66" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" s="66" t="s">
-        <v>90</v>
-      </c>
-      <c r="E17" s="69"/>
-      <c r="F17" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="68"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="96" t="s">
-        <v>98</v>
-      </c>
-      <c r="J17" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="K17" s="71">
-        <v>43573</v>
-      </c>
-      <c r="L17" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="M17" s="69"/>
-      <c r="N17" s="94"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="65">
-        <v>43546</v>
-      </c>
-      <c r="B18" s="66" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" s="66" t="s">
-        <v>92</v>
-      </c>
-      <c r="E18" s="69"/>
-      <c r="F18" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="68"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="96" t="s">
-        <v>98</v>
-      </c>
-      <c r="J18" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="K18" s="69"/>
-      <c r="L18" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="M18" s="69"/>
-      <c r="N18" s="94"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="65">
-        <v>43518</v>
-      </c>
-      <c r="B19" s="66" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="66" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="66" t="s">
-        <v>94</v>
-      </c>
-      <c r="E19" s="69"/>
-      <c r="F19" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" s="68"/>
-      <c r="H19" s="70">
-        <v>3.36</v>
-      </c>
-      <c r="I19" s="96" t="s">
-        <v>98</v>
-      </c>
-      <c r="J19" s="87" t="s">
-        <v>118</v>
-      </c>
-      <c r="K19" s="69"/>
-      <c r="L19" s="71" t="s">
-        <v>64</v>
-      </c>
-      <c r="M19" s="69"/>
-      <c r="N19" s="94"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2332,31 +2393,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="27.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.44140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="37.44140625" style="23" customWidth="1"/>
+    <col min="1" max="1" width="5.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="37.5" style="23" customWidth="1"/>
     <col min="7" max="7" width="40" style="23" customWidth="1"/>
     <col min="8" max="8" width="15" style="23" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="23" customWidth="1"/>
-    <col min="10" max="10" width="8" style="85" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="1"/>
+    <col min="10" max="10" width="8" style="82" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A1" s="29" t="s">
         <v>31</v>
       </c>
@@ -2364,40 +2425,40 @@
         <v>32</v>
       </c>
       <c r="C1" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="E1" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="F1" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="G1" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="H1" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="I1" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="J1" s="77" t="s">
+        <v>101</v>
+      </c>
+      <c r="K1" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="80" t="s">
-        <v>102</v>
-      </c>
-      <c r="K1" s="30" t="s">
-        <v>40</v>
-      </c>
       <c r="L1" s="30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M1" s="30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="32">
         <v>1</v>
       </c>
@@ -2405,32 +2466,32 @@
         <v>43495</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" s="35"/>
       <c r="E2" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="36" t="s">
         <v>42</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>43</v>
       </c>
       <c r="G2" s="37"/>
       <c r="H2" s="38">
         <v>43539</v>
       </c>
       <c r="I2" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="78"/>
+      <c r="K2" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="81"/>
-      <c r="K2" s="34" t="s">
-        <v>45</v>
-      </c>
       <c r="L2" s="34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M2" s="32"/>
     </row>
-    <row r="3" spans="1:13" ht="57.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="54" x14ac:dyDescent="0.15">
       <c r="A3" s="32">
         <v>2</v>
       </c>
@@ -2438,34 +2499,34 @@
         <v>43495</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="35"/>
       <c r="E3" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="G3" s="36" t="s">
         <v>47</v>
-      </c>
-      <c r="G3" s="36" t="s">
-        <v>48</v>
       </c>
       <c r="H3" s="38">
         <v>43539</v>
       </c>
       <c r="I3" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="78"/>
+      <c r="K3" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="81"/>
-      <c r="K3" s="34" t="s">
-        <v>45</v>
-      </c>
       <c r="L3" s="34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M3" s="32"/>
     </row>
-    <row r="4" spans="1:13" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="39">
         <v>3</v>
       </c>
@@ -2473,32 +2534,32 @@
         <v>43543</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="42"/>
       <c r="E4" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="G4" s="43" t="s">
         <v>50</v>
-      </c>
-      <c r="G4" s="43" t="s">
-        <v>51</v>
       </c>
       <c r="H4" s="44"/>
       <c r="I4" s="44"/>
-      <c r="J4" s="82" t="s">
-        <v>103</v>
+      <c r="J4" s="79" t="s">
+        <v>102</v>
       </c>
       <c r="K4" s="41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L4" s="41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M4" s="41"/>
     </row>
-    <row r="5" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="32">
         <v>4</v>
       </c>
@@ -2506,30 +2567,30 @@
         <v>43545</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="32"/>
       <c r="E5" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="36" t="s">
-        <v>55</v>
-      </c>
       <c r="G5" s="36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H5" s="37"/>
       <c r="I5" s="37"/>
-      <c r="J5" s="83"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L5" s="34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M5" s="35"/>
     </row>
-    <row r="6" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="39">
         <v>5</v>
       </c>
@@ -2537,36 +2598,36 @@
         <v>43546</v>
       </c>
       <c r="C6" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="E6" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="F6" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="43" t="s">
+      <c r="G6" s="43" t="s">
         <v>59</v>
-      </c>
-      <c r="G6" s="43" t="s">
-        <v>60</v>
       </c>
       <c r="H6" s="44"/>
       <c r="I6" s="44"/>
-      <c r="J6" s="82" t="s">
-        <v>101</v>
+      <c r="J6" s="79" t="s">
+        <v>100</v>
       </c>
       <c r="K6" s="41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L6" s="41" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M6" s="42" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="45">
         <v>6</v>
       </c>
@@ -2574,32 +2635,34 @@
         <v>43546</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" s="47" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="49" t="s">
-        <v>62</v>
-      </c>
       <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
+      <c r="H7" s="49" t="s">
+        <v>119</v>
+      </c>
       <c r="I7" s="50"/>
-      <c r="J7" s="84" t="s">
-        <v>103</v>
+      <c r="J7" s="81" t="s">
+        <v>102</v>
       </c>
       <c r="K7" s="47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L7" s="47" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M7" s="48"/>
     </row>
-    <row r="8" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="39">
         <v>7</v>
       </c>
@@ -2607,119 +2670,181 @@
         <v>43557</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8" s="39"/>
       <c r="E8" s="43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F8" s="44"/>
       <c r="G8" s="44"/>
       <c r="H8" s="44"/>
       <c r="I8" s="44"/>
-      <c r="J8" s="82" t="s">
+      <c r="J8" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="M8" s="39"/>
+    </row>
+    <row r="9" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="32">
+        <v>8</v>
+      </c>
+      <c r="B9" s="33">
+        <v>43558</v>
+      </c>
+      <c r="C9" s="94" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="95">
+        <v>43580</v>
+      </c>
+      <c r="I9" s="37"/>
+      <c r="J9" s="78" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="M9" s="96" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="60">
+        <v>9</v>
+      </c>
+      <c r="B10" s="57">
+        <v>43566</v>
+      </c>
+      <c r="C10" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="79" t="s">
         <v>103</v>
       </c>
-      <c r="K8" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="L8" s="41" t="s">
+      <c r="K10" s="60"/>
+      <c r="L10" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="M10" s="60"/>
+    </row>
+    <row r="11" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="60">
+        <v>10</v>
+      </c>
+      <c r="B11" s="57">
+        <v>43566</v>
+      </c>
+      <c r="C11" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="79" t="s">
+        <v>100</v>
+      </c>
+      <c r="K11" s="60"/>
+      <c r="L11" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="M11" s="60"/>
+    </row>
+    <row r="12" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="97">
+        <v>11</v>
+      </c>
+      <c r="B12" s="98">
+        <v>43581</v>
+      </c>
+      <c r="C12" s="99" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="100" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" s="101" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="102"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="103">
+        <v>43591</v>
+      </c>
+      <c r="I12" s="102"/>
+      <c r="J12" s="81" t="s">
+        <v>102</v>
+      </c>
+      <c r="K12" s="97"/>
+      <c r="L12" s="100" t="s">
         <v>110</v>
       </c>
-      <c r="M8" s="39"/>
-    </row>
-    <row r="9" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="45">
-        <v>8</v>
-      </c>
-      <c r="B9" s="46">
-        <v>43558</v>
-      </c>
-      <c r="C9" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="72">
-        <v>43574</v>
-      </c>
-      <c r="I9" s="50"/>
-      <c r="J9" s="84" t="s">
-        <v>101</v>
-      </c>
-      <c r="K9" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="L9" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="M9" s="51" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="62">
-        <v>9</v>
-      </c>
-      <c r="B10" s="59">
-        <v>43566</v>
-      </c>
-      <c r="C10" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="82" t="s">
-        <v>104</v>
-      </c>
-      <c r="K10" s="62"/>
-      <c r="L10" s="60" t="s">
-        <v>112</v>
-      </c>
-      <c r="M10" s="62"/>
-    </row>
-    <row r="11" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="62">
-        <v>10</v>
-      </c>
-      <c r="B11" s="59">
-        <v>43566</v>
-      </c>
-      <c r="C11" s="63" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="60" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="82" t="s">
-        <v>101</v>
-      </c>
-      <c r="K11" s="62"/>
-      <c r="L11" s="60" t="s">
-        <v>109</v>
-      </c>
-      <c r="M11" s="62"/>
+      <c r="M12" s="97"/>
+    </row>
+    <row r="13" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="97">
+        <v>12</v>
+      </c>
+      <c r="B13" s="98">
+        <v>43581</v>
+      </c>
+      <c r="C13" s="99" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="100" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" s="101" t="s">
+        <v>124</v>
+      </c>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="103">
+        <v>43591</v>
+      </c>
+      <c r="I13" s="102"/>
+      <c r="J13" s="81" t="s">
+        <v>102</v>
+      </c>
+      <c r="K13" s="97"/>
+      <c r="L13" s="100" t="s">
+        <v>110</v>
+      </c>
+      <c r="M13" s="97"/>
     </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
@@ -2739,7 +2864,7 @@
       <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
